--- a/doc/OA系统调研  銷售管理分工.xlsx
+++ b/doc/OA系统调研  銷售管理分工.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19386" windowHeight="10181" activeTab="0" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19371" windowHeight="10166" activeTab="0" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="OA系统功能说明" sheetId="1" r:id="rId2"/>
@@ -1319,7 +1319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="5">
+  <fonts count="6" x14ac:knownFonts="6">
     <font>
       <sz val="11.0"/>
       <name val="等线"/>
@@ -1338,6 +1338,13 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1347,7 +1354,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1396,8 +1403,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1652,13 +1683,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,10 +1873,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="9" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,11 +1935,11 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="I18" activeCellId="0" sqref="I18"/>
-      <selection pane="topRight" activeCell="I18" activeCellId="0" sqref="I18"/>
-      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F52" activeCellId="0" sqref="F52"/>
+      <selection pane="topRight" activeCell="F52" activeCellId="0" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" defaultColWidth="8.0" x14ac:dyDescent="0.15"/>
@@ -2323,7 +2513,7 @@
         <v>98</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I27" s="7"/>
@@ -2343,7 +2533,7 @@
         <v>101</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I28" s="7"/>
@@ -2363,7 +2553,7 @@
         <v>104</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="7"/>
@@ -2383,7 +2573,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I30" s="7"/>
@@ -2403,7 +2593,7 @@
         <v>110</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I31" s="7"/>
@@ -2443,7 +2633,7 @@
         <v>115</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="7"/>
@@ -2627,7 +2817,7 @@
         <v>146</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I42" s="7"/>
@@ -2647,7 +2837,7 @@
         <v>149</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I43" s="7"/>
@@ -2727,7 +2917,7 @@
         <v>161</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I47" s="7"/>
@@ -2807,7 +2997,7 @@
         <v>173</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I51" s="7"/>
@@ -2827,7 +3017,7 @@
         <v>176</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I52" s="7"/>
@@ -2969,7 +3159,7 @@
         <v>197</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I59" s="7"/>
@@ -3131,7 +3321,7 @@
         <v>221</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I67" s="7"/>
@@ -3211,7 +3401,7 @@
         <v>233</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="21" t="s">
+      <c r="H71" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I71" s="7"/>
@@ -3251,7 +3441,7 @@
         <v>238</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="21" t="s">
+      <c r="H73" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I73" s="7"/>
@@ -3271,7 +3461,7 @@
         <v>241</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="21" t="s">
+      <c r="H74" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I74" s="7"/>
@@ -3291,7 +3481,7 @@
         <v>244</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I75" s="7"/>
@@ -3311,7 +3501,7 @@
         <v>247</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I76" s="7"/>
@@ -3351,7 +3541,7 @@
         <v>252</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I78" s="7"/>
@@ -3371,7 +3561,7 @@
         <v>255</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I79" s="7"/>
@@ -3393,7 +3583,7 @@
         <v>258</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="21" t="s">
+      <c r="H80" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I80" s="7"/>
@@ -3964,7 +4154,7 @@
       <c r="C2" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="1">
         <v>10.0</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3981,7 +4171,7 @@
       <c r="C3" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="1">
         <v>20.0</v>
       </c>
       <c r="E3" t="s">
@@ -3998,7 +4188,7 @@
       <c r="C4" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="1">
         <v>30.0</v>
       </c>
       <c r="E4" t="s">
@@ -4015,7 +4205,7 @@
       <c r="C5" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="1">
         <v>10.0</v>
       </c>
       <c r="E5" t="s">
@@ -4032,7 +4222,7 @@
       <c r="C6" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="1">
         <v>20.0</v>
       </c>
       <c r="E6" t="s">
@@ -4049,7 +4239,7 @@
       <c r="C7" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="1">
         <v>10.0</v>
       </c>
       <c r="E7" t="s">
@@ -4066,7 +4256,7 @@
       <c r="C8" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="1">
         <v>20.0</v>
       </c>
       <c r="E8" t="s">
@@ -4083,7 +4273,7 @@
       <c r="C9" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="1">
         <v>30.0</v>
       </c>
       <c r="E9" t="s">
@@ -4100,7 +4290,7 @@
       <c r="C10" t="s">
         <v>346</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="1">
         <v>10.0</v>
       </c>
       <c r="E10" t="s">
@@ -4117,7 +4307,7 @@
       <c r="C11" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="1">
         <v>20.0</v>
       </c>
       <c r="E11" t="s">
@@ -4134,7 +4324,7 @@
       <c r="C12" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="1">
         <v>30.0</v>
       </c>
       <c r="E12" t="s">
@@ -4151,7 +4341,7 @@
       <c r="C13" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="1">
         <v>10.0</v>
       </c>
       <c r="E13" t="s">
@@ -4168,7 +4358,7 @@
       <c r="C14" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="1">
         <v>20.0</v>
       </c>
       <c r="E14" t="s">
@@ -4185,7 +4375,7 @@
       <c r="C15" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="1">
         <v>10.0</v>
       </c>
       <c r="E15" t="s">
@@ -4202,7 +4392,7 @@
       <c r="C16" t="s">
         <v>359</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="1">
         <v>20.0</v>
       </c>
       <c r="E16" t="s">
@@ -4219,7 +4409,7 @@
       <c r="C17" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="1">
         <v>30.0</v>
       </c>
       <c r="E17" t="s">
@@ -4236,7 +4426,7 @@
       <c r="C18" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="1">
         <v>10.0</v>
       </c>
       <c r="E18" t="s">
@@ -4253,7 +4443,7 @@
       <c r="C19" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="1">
         <v>20.0</v>
       </c>
       <c r="E19" t="s">
@@ -4270,7 +4460,7 @@
       <c r="C20" t="s">
         <v>353</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="1">
         <v>30.0</v>
       </c>
       <c r="E20" t="s">
@@ -4287,7 +4477,7 @@
       <c r="C21" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="1">
         <v>10.0</v>
       </c>
       <c r="E21" t="s">
@@ -4304,7 +4494,7 @@
       <c r="C22" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="1">
         <v>20.0</v>
       </c>
       <c r="E22" t="s">
@@ -4321,7 +4511,7 @@
       <c r="C23" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="1">
         <v>30.0</v>
       </c>
       <c r="E23" t="s">
@@ -4338,7 +4528,7 @@
       <c r="C24" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="1">
         <v>10.0</v>
       </c>
       <c r="E24" t="s">
@@ -4355,7 +4545,7 @@
       <c r="C25" t="s">
         <v>359</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="1">
         <v>20.0</v>
       </c>
       <c r="E25" t="s">
@@ -4372,7 +4562,7 @@
       <c r="C26" t="s">
         <v>353</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="1">
         <v>30.0</v>
       </c>
       <c r="E26" t="s">
@@ -4389,7 +4579,7 @@
       <c r="C27" t="s">
         <v>346</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="1">
         <v>10.0</v>
       </c>
       <c r="E27" t="s">
@@ -4406,7 +4596,7 @@
       <c r="C28" t="s">
         <v>359</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="1">
         <v>20.0</v>
       </c>
       <c r="E28" t="s">
@@ -4423,7 +4613,7 @@
       <c r="C29" t="s">
         <v>353</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="1">
         <v>30.0</v>
       </c>
       <c r="E29" t="s">
@@ -4440,7 +4630,7 @@
       <c r="C30" t="s">
         <v>346</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="1">
         <v>10.0</v>
       </c>
       <c r="E30" t="s">
@@ -4457,7 +4647,7 @@
       <c r="C31" t="s">
         <v>359</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="1">
         <v>20.0</v>
       </c>
       <c r="E31" t="s">
@@ -4474,7 +4664,7 @@
       <c r="C32" t="s">
         <v>353</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="1">
         <v>30.0</v>
       </c>
       <c r="E32" t="s">
@@ -4491,7 +4681,7 @@
       <c r="C33" t="s">
         <v>346</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="1">
         <v>10.0</v>
       </c>
       <c r="E33" t="s">
@@ -4508,7 +4698,7 @@
       <c r="C34" t="s">
         <v>369</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="1">
         <v>20.0</v>
       </c>
       <c r="E34" t="s">
@@ -4525,7 +4715,7 @@
       <c r="C35" t="s">
         <v>353</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="1">
         <v>30.0</v>
       </c>
       <c r="E35" t="s">
@@ -4542,7 +4732,7 @@
       <c r="C36" t="s">
         <v>371</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="1">
         <v>10.0</v>
       </c>
       <c r="E36" t="s">
@@ -4559,7 +4749,7 @@
       <c r="C37" t="s">
         <v>373</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="1">
         <v>20.0</v>
       </c>
       <c r="E37" t="s">
@@ -4576,7 +4766,7 @@
       <c r="C38" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="1">
         <v>30.0</v>
       </c>
       <c r="E38" t="s">
@@ -4593,7 +4783,7 @@
       <c r="C39" t="s">
         <v>377</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="1">
         <v>10.0</v>
       </c>
       <c r="E39" t="s">
@@ -4610,7 +4800,7 @@
       <c r="C40" t="s">
         <v>378</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="1">
         <v>20.0</v>
       </c>
       <c r="E40" t="s">
@@ -4627,7 +4817,7 @@
       <c r="C41" t="s">
         <v>379</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="1">
         <v>30.0</v>
       </c>
       <c r="E41" t="s">
@@ -4644,7 +4834,7 @@
       <c r="C42" t="s">
         <v>380</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="1">
         <v>40.0</v>
       </c>
       <c r="E42" t="s">
@@ -4661,7 +4851,7 @@
       <c r="C43" t="s">
         <v>382</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="1">
         <v>50.0</v>
       </c>
       <c r="E43" t="s">
@@ -4678,7 +4868,7 @@
       <c r="C44" t="s">
         <v>346</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="1">
         <v>10.0</v>
       </c>
       <c r="E44" t="s">
@@ -4695,7 +4885,7 @@
       <c r="C45" t="s">
         <v>359</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="1">
         <v>20.0</v>
       </c>
       <c r="E45" t="s">
@@ -4712,7 +4902,7 @@
       <c r="C46" t="s">
         <v>353</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="1">
         <v>30.0</v>
       </c>
       <c r="E46" t="s">
@@ -4729,7 +4919,7 @@
       <c r="C47" t="s">
         <v>346</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="1">
         <v>10.0</v>
       </c>
       <c r="E47" t="s">
@@ -4746,7 +4936,7 @@
       <c r="C48" t="s">
         <v>359</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="1">
         <v>20.0</v>
       </c>
       <c r="E48" t="s">
@@ -4763,7 +4953,7 @@
       <c r="C49" t="s">
         <v>353</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="1">
         <v>30.0</v>
       </c>
       <c r="E49" t="s">
@@ -4780,7 +4970,7 @@
       <c r="C50" t="s">
         <v>346</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="1">
         <v>10.0</v>
       </c>
       <c r="E50" t="s">
@@ -4797,7 +4987,7 @@
       <c r="C51" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="1">
         <v>20.0</v>
       </c>
       <c r="E51" t="s">
@@ -4814,7 +5004,7 @@
       <c r="C52" t="s">
         <v>386</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="1">
         <v>30.0</v>
       </c>
       <c r="E52" t="s">
@@ -4831,7 +5021,7 @@
       <c r="C53" t="s">
         <v>346</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="1">
         <v>10.0</v>
       </c>
       <c r="E53" t="s">
@@ -4848,7 +5038,7 @@
       <c r="C54" t="s">
         <v>353</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="1">
         <v>20.0</v>
       </c>
       <c r="E54" t="s">
@@ -4865,7 +5055,7 @@
       <c r="C55" t="s">
         <v>386</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="1">
         <v>30.0</v>
       </c>
       <c r="E55" t="s">
@@ -4882,7 +5072,7 @@
       <c r="C56" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="1">
         <v>10.0</v>
       </c>
       <c r="E56" t="s">
@@ -4899,7 +5089,7 @@
       <c r="C57" t="s">
         <v>386</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="1">
         <v>20.0</v>
       </c>
       <c r="E57" t="s">
@@ -4916,7 +5106,7 @@
       <c r="C58" t="s">
         <v>347</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="1">
         <v>10.0</v>
       </c>
       <c r="E58" t="s">
@@ -4933,7 +5123,7 @@
       <c r="C59" t="s">
         <v>369</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="1">
         <v>20.0</v>
       </c>
       <c r="E59" t="s">
@@ -4950,7 +5140,7 @@
       <c r="C60" t="s">
         <v>386</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="1">
         <v>30.0</v>
       </c>
       <c r="E60" t="s">
@@ -4967,7 +5157,7 @@
       <c r="C61" t="s">
         <v>353</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="1">
         <v>40.0</v>
       </c>
       <c r="E61" t="s">
@@ -4984,7 +5174,7 @@
       <c r="C62" t="s">
         <v>348</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="1">
         <v>10.0</v>
       </c>
       <c r="E62" t="s">
@@ -5001,7 +5191,7 @@
       <c r="C63" t="s">
         <v>350</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="1">
         <v>20.0</v>
       </c>
       <c r="E63" t="s">
@@ -5015,7 +5205,7 @@
       <c r="C64" t="s">
         <v>392</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="1">
         <v>10.0</v>
       </c>
       <c r="E64" t="s">
@@ -5029,7 +5219,7 @@
       <c r="C65" t="s">
         <v>393</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="1">
         <v>20.0</v>
       </c>
       <c r="E65" t="s">
@@ -5043,7 +5233,7 @@
       <c r="C66" t="s">
         <v>394</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="1">
         <v>30.0</v>
       </c>
       <c r="E66" t="s">
@@ -5057,7 +5247,7 @@
       <c r="C67" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="1">
         <v>10.0</v>
       </c>
       <c r="E67" t="s">
@@ -5071,7 +5261,7 @@
       <c r="C68" t="s">
         <v>399</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="1">
         <v>20.0</v>
       </c>
       <c r="E68" t="s">
@@ -5107,7 +5297,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">

--- a/doc/OA系统调研  銷售管理分工.xlsx
+++ b/doc/OA系统调研  銷售管理分工.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="433">
   <si>
     <t>功能编号</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>客户信息登记，暂时未用</t>
+  </si>
+  <si>
+    <t>孙广明</t>
   </si>
   <si>
     <t>No.59</t>
@@ -1319,7 +1322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="6">
+  <fonts count="7" x14ac:knownFonts="7">
     <font>
       <sz val="11.0"/>
       <name val="等线"/>
@@ -1345,6 +1348,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFFFFF00"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1428,7 +1436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1803,13 +1811,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,7 +1938,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1935,11 +1961,11 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F52" activeCellId="0" sqref="F52"/>
-      <selection pane="topRight" activeCell="F52" activeCellId="0" sqref="F52"/>
-      <selection pane="bottomLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
-      <selection pane="bottomRight" activeCell="F52" activeCellId="0" sqref="F52"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="topRight" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="bottomLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="bottomRight" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" defaultColWidth="8.0" x14ac:dyDescent="0.15"/>
@@ -3162,21 +3188,23 @@
       <c r="H59" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="35" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
@@ -3187,16 +3215,16 @@
     <row r="61" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
@@ -3207,12 +3235,12 @@
     <row r="62" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="17" t="s">
@@ -3227,16 +3255,16 @@
     <row r="63" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
@@ -3247,16 +3275,16 @@
     <row r="64" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
@@ -3267,16 +3295,16 @@
     <row r="65" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
@@ -3287,18 +3315,18 @@
     <row r="66" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
@@ -3309,16 +3337,16 @@
     <row r="67" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
@@ -3329,16 +3357,16 @@
     <row r="68" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
@@ -3349,16 +3377,16 @@
     <row r="69" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
@@ -3369,16 +3397,16 @@
     <row r="70" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
@@ -3389,16 +3417,16 @@
     <row r="71" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
@@ -3409,16 +3437,16 @@
     <row r="72" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
@@ -3429,16 +3457,16 @@
     <row r="73" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
@@ -3449,16 +3477,16 @@
     <row r="74" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
@@ -3469,16 +3497,16 @@
     <row r="75" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
@@ -3489,16 +3517,16 @@
     <row r="76" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
@@ -3509,16 +3537,16 @@
     <row r="77" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
@@ -3529,16 +3557,16 @@
     <row r="78" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
@@ -3549,16 +3577,16 @@
     <row r="79" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
@@ -3569,18 +3597,18 @@
     <row r="80" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
@@ -3591,18 +3619,18 @@
     <row r="81" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3611,16 +3639,16 @@
     <row r="82" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3629,16 +3657,16 @@
     <row r="83" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3647,16 +3675,16 @@
     <row r="84" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3665,16 +3693,16 @@
     <row r="85" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3683,16 +3711,16 @@
     <row r="86" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -3701,16 +3729,16 @@
     <row r="87" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -3719,16 +3747,16 @@
     <row r="88" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -3739,12 +3767,12 @@
     <row r="89" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -3755,16 +3783,16 @@
     <row r="90" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
@@ -3773,16 +3801,16 @@
     <row r="91" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
@@ -3791,18 +3819,18 @@
     <row r="92" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
@@ -3811,16 +3839,16 @@
     <row r="93" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
@@ -3829,16 +3857,16 @@
     <row r="94" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
@@ -3847,16 +3875,16 @@
     <row r="95" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
@@ -3865,16 +3893,16 @@
     <row r="96" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
@@ -3883,18 +3911,18 @@
     <row r="97" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
@@ -3903,16 +3931,16 @@
     <row r="98" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
@@ -3921,16 +3949,16 @@
     <row r="99" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -3941,12 +3969,12 @@
     <row r="100" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -3957,12 +3985,12 @@
     <row r="101" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -3973,14 +4001,14 @@
     <row r="102" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -3991,12 +4019,12 @@
     <row r="103" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -4007,12 +4035,12 @@
     <row r="104" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -4023,12 +4051,12 @@
     <row r="105" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -4039,14 +4067,14 @@
     <row r="106" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -4057,12 +4085,12 @@
     <row r="107" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -4073,12 +4101,12 @@
     <row r="108" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -4089,12 +4117,12 @@
     <row r="109" spans="1:9" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <f>"No."&amp;ROW()-1</f>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -4129,597 +4157,597 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1">
         <v>10.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1">
         <v>20.0</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1">
         <v>30.0</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D5" s="1">
         <v>10.0</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D6" s="1">
         <v>20.0</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1">
         <v>10.0</v>
       </c>
       <c r="E7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D8" s="1">
         <v>20.0</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D9" s="1">
         <v>30.0</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1">
         <v>10.0</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D11" s="1">
         <v>20.0</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D12" s="1">
         <v>30.0</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D13" s="1">
         <v>10.0</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D14" s="1">
         <v>20.0</v>
       </c>
       <c r="E14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D15" s="1">
         <v>10.0</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D16" s="1">
         <v>20.0</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D17" s="1">
         <v>30.0</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D18" s="1">
         <v>10.0</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D19" s="1">
         <v>20.0</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D20" s="1">
         <v>30.0</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D21" s="1">
         <v>10.0</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D22" s="1">
         <v>20.0</v>
       </c>
       <c r="E22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="1">
         <v>30.0</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D24" s="1">
         <v>10.0</v>
       </c>
       <c r="E24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D25" s="1">
         <v>20.0</v>
       </c>
       <c r="E25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D26" s="1">
         <v>30.0</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D27" s="1">
         <v>10.0</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D28" s="1">
         <v>20.0</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D29" s="1">
         <v>30.0</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D30" s="1">
         <v>10.0</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D31" s="1">
         <v>20.0</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D32" s="1">
         <v>30.0</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D33" s="1">
         <v>10.0</v>
       </c>
       <c r="E33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D34" s="1">
         <v>20.0</v>
       </c>
       <c r="E34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D35" s="1">
         <v>30.0</v>
       </c>
       <c r="E35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4730,13 +4758,13 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D36" s="1">
         <v>10.0</v>
       </c>
       <c r="E36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4747,13 +4775,13 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D37" s="1">
         <v>20.0</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4764,508 +4792,508 @@
         <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D38" s="1">
         <v>30.0</v>
       </c>
       <c r="E38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D39" s="1">
         <v>10.0</v>
       </c>
       <c r="E39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D40" s="1">
         <v>20.0</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D41" s="1">
         <v>30.0</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D42" s="1">
         <v>40.0</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D43" s="1">
         <v>50.0</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D44" s="1">
         <v>10.0</v>
       </c>
       <c r="E44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D45" s="1">
         <v>20.0</v>
       </c>
       <c r="E45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D46" s="1">
         <v>30.0</v>
       </c>
       <c r="E46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D47" s="1">
         <v>10.0</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D48" s="1">
         <v>20.0</v>
       </c>
       <c r="E48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D49" s="1">
         <v>30.0</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D50" s="1">
         <v>10.0</v>
       </c>
       <c r="E50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D51" s="1">
         <v>20.0</v>
       </c>
       <c r="E51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D52" s="1">
         <v>30.0</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D53" s="1">
         <v>10.0</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D54" s="1">
         <v>20.0</v>
       </c>
       <c r="E54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" t="s">
         <v>387</v>
-      </c>
-      <c r="B55" t="s">
-        <v>387</v>
-      </c>
-      <c r="C55" t="s">
-        <v>386</v>
       </c>
       <c r="D55" s="1">
         <v>30.0</v>
       </c>
       <c r="E55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D56" s="1">
         <v>10.0</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D57" s="1">
         <v>20.0</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D58" s="1">
         <v>10.0</v>
       </c>
       <c r="E58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D59" s="1">
         <v>20.0</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D60" s="1">
         <v>30.0</v>
       </c>
       <c r="E60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D61" s="1">
         <v>40.0</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D62" s="1">
         <v>10.0</v>
       </c>
       <c r="E62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D63" s="1">
         <v>20.0</v>
       </c>
       <c r="E63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D64" s="1">
         <v>10.0</v>
       </c>
       <c r="E64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D65" s="1">
         <v>20.0</v>
       </c>
       <c r="E65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D66" s="1">
         <v>30.0</v>
       </c>
       <c r="E66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D67" s="1">
         <v>10.0</v>
       </c>
       <c r="E67" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D68" s="1">
         <v>20.0</v>
       </c>
       <c r="E68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5290,10 +5318,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
@@ -5301,7 +5329,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5332,135 +5360,135 @@
   <sheetData>
     <row r="2" spans="1:4" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="11.999817" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/doc/OA系统调研  銷售管理分工.xlsx
+++ b/doc/OA系统调研  銷售管理分工.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19371" windowHeight="10166" activeTab="0" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19341" windowHeight="10135" activeTab="0" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="OA系统功能说明" sheetId="1" r:id="rId2"/>
@@ -1322,7 +1322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="7">
+  <fonts count="6" x14ac:knownFonts="6">
     <font>
       <sz val="11.0"/>
       <name val="等线"/>
@@ -1348,11 +1348,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFFFFF00"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1436,7 +1431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1811,28 +1806,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1890,12 +1870,6 @@
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,10 +1912,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,11 +1938,11 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="I59" activeCellId="0" sqref="I59"/>
-      <selection pane="topRight" activeCell="I59" activeCellId="0" sqref="I59"/>
-      <selection pane="bottomLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
-      <selection pane="bottomRight" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H47" activeCellId="0" sqref="H47"/>
+      <selection pane="topRight" activeCell="H47" activeCellId="0" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" defaultColWidth="8.0" x14ac:dyDescent="0.15"/>
@@ -2984,7 +2961,7 @@
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I49" s="7"/>
     </row>
@@ -3188,7 +3165,7 @@
       <c r="H59" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4145,7 +4122,9 @@
   </sheetPr>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" defaultColWidth="15.555555555555555" x14ac:dyDescent="0.15"/>
   <cols>
